--- a/Data/Skill_4000.xlsx
+++ b/Data/Skill_4000.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,39 +33,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedUpMovement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DurationTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackLeft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AttackDamage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedUpMovement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoolTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DurationTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackLeft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackRight</t>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movement_speedup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -424,25 +440,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="7" width="19.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.5625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="8" max="9" width="17.5625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,33 +466,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A2" s="3">
         <v>4000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -499,13 +518,16 @@
       <c r="I2" s="3">
         <v>50</v>
       </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A3" s="3">
         <v>4001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -528,13 +550,16 @@
       <c r="I3" s="3">
         <v>50</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A4" s="3">
         <v>4002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3">
         <v>37.490600000000001</v>
@@ -556,6 +581,9 @@
       </c>
       <c r="I4" s="3">
         <v>0</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
